--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="157">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -291,10 +291,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>AdjustedRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>AdjCode</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -369,14 +365,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>調整時鍵入利率生效日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxEffectDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TxRateAdjFreq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -393,15 +381,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ContrBaseRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>ContrIndexRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrBaseRate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -450,10 +430,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未用,同本次生效日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>產檔時鍵入預調利率週期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -461,14 +437,6 @@
     <t xml:space="preserve">SELECT  JSON_VALUE  ("JsonFields",  '$.NextAdjPeriod') AS NextAdjPeriod
 </t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>預調利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextAdjRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CheckMsg</t>
@@ -637,6 +605,42 @@
 1.已調整
 2.待輸入
 9.待處理(檢核有誤)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustedRate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款利率變動檔生效日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxEffectDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrBaseRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContrBaseRate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率未變動為零</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FitRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借戶利率檔適用利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前利率 &lt;&gt; 借戶利率檔適用利率(預調利率)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1294,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1318,7 +1322,7 @@
         <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1328,7 +1332,7 @@
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="C2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1343,7 +1347,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1424,10 +1428,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>60</v>
@@ -1500,10 +1504,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>36</v>
@@ -1513,7 +1517,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1578,20 +1582,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>77</v>
-      </c>
       <c r="D17" s="27" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="48.6">
@@ -1599,10 +1603,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>36</v>
@@ -1612,7 +1616,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1620,10 +1624,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>36</v>
@@ -1633,7 +1637,7 @@
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1641,10 +1645,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>91</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>36</v>
@@ -1654,7 +1658,7 @@
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1700,10 +1704,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>60</v>
@@ -1713,7 +1717,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1740,10 +1744,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>60</v>
@@ -1759,10 +1763,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>86</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>36</v>
@@ -1772,7 +1776,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1812,7 +1816,7 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1842,7 +1846,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>37</v>
@@ -1854,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1886,7 +1890,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>37</v>
@@ -1907,7 +1911,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>37</v>
@@ -1925,7 +1929,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>34</v>
@@ -1946,10 +1950,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>37</v>
@@ -1961,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1972,7 +1976,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>39</v>
@@ -1984,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1995,7 +1999,7 @@
         <v>66</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>39</v>
@@ -2007,7 +2011,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2015,10 +2019,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>35</v>
@@ -2028,7 +2032,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2039,7 +2043,7 @@
         <v>68</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>62</v>
@@ -2049,7 +2053,7 @@
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2057,10 +2061,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>36</v>
@@ -2072,7 +2076,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2080,10 +2084,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>60</v>
@@ -2093,7 +2097,7 @@
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2101,10 +2105,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>36</v>
@@ -2120,13 +2124,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E43" s="31">
         <v>300</v>
@@ -2139,13 +2143,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2156,10 +2160,10 @@
         <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>35</v>
@@ -2174,10 +2178,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>35</v>
@@ -2301,10 +2305,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2312,7 +2316,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2320,34 +2324,34 @@
         <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2361,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2372,12 +2376,12 @@
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="40" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2409,13 +2413,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2427,13 +2431,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F6" s="16">
         <v>6</v>
@@ -2441,7 +2445,9 @@
       <c r="G6" s="16">
         <v>4</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="42" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
       <c r="A7" s="41"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="158">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -642,6 +642,9 @@
   <si>
     <t>目前利率 &lt;&gt; 借戶利率檔適用利率(預調利率)</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,FacmNo,BormNo</t>
   </si>
 </sst>
 </file>
@@ -2279,15 +2282,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="102.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="151.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -2344,6 +2347,9 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>131</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2365,7 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxRateChange.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB431D8E-9123-4A16-94E4-27960DC188E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -310,9 +311,6 @@
     <t>KeyID</t>
   </si>
   <si>
-    <t>Y:是N:否</t>
-  </si>
-  <si>
     <t>PresEffDate</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -475,182 +473,187 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.未確認
-1.確認未放行
-2.已確認放行
+    <t>OvduTerm</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期期數</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxtNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易序號</t>
+  </si>
+  <si>
+    <t>findL4320Erase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind = ,AND ConfirmFlag = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTlrNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約指標利率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>個別加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前借戶利率檔加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整前借戶利率檔個別加碼利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjCodeEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AdjDate = ,AND TxKind = ,AND RateKeyInCode = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,FacmNo,BormNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率輸入記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustedRate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款利率變動檔生效日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxEffectDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrBaseRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContrBaseRate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率未變動為零</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FitRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借戶利率檔適用利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前利率 &lt;&gt; 借戶利率檔適用利率(預調利率)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,FacmNo,BormNo</t>
+  </si>
+  <si>
+    <t>CdCode.TxKind
+1:定期機動調整
+2:指數型利率調整
+3:機動利率調整
+4:員工利率調整
+5:按商品別調整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1:批次自動調整
+2:按地區別調整
+3:人工調整 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未調整
+1:已調整
+2:待輸入
+9:待處理(檢核有誤)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未確認
+1:確認未放行
+2:已確認放行
 L4321維護，確認後Table欄位不可更改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:EntCode
+    <t>CdCode.EntCode
 0:個金
 1:企金
 2:企金自然人</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:ProdBaseRateCode
-01.保單分紅利率
-02.郵政儲金利率 
-99.自訂利率
+    <t>CdCode.ProdBaseRateCode
+01:保單分紅利率
+02:郵政儲金利率 
+99:自訂利率
 RateType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:FacmRateCode
+    <t>CdCode.FacmRateCode
 1:機動
 2:固定
 3:定期機動</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OvduTerm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期期數</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>經辦</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxtNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易序號</t>
-  </si>
-  <si>
-    <t>findL4320Erase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AdjDate &gt;= ,AND AdjDate &lt;= ,AND CustCode &gt;= ,AND CustCode &lt;= ,AND TxKind = ,AND ConfirmFlag = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTlrNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合約指標利率</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>個別加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合約加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整前借戶利率檔加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整前借戶利率檔個別加碼利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.批次自動調整
-2.按地區別調整
-3.人工調整 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjCodeEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AdjDate = ,AND TxKind = ,AND RateKeyInCode = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo,FacmNo,BormNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:TxKind
-1.定期機動調整
-2.指數型利率調整
-3.機動利率調整
-4.員工利率調整
-5.按商品別調整</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率輸入記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.未調整
-1.已調整
-2.待輸入
-9.待處理(檢核有誤)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjustedRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>放款利率變動檔生效日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxEffectDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrBaseRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContrBaseRate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率未變動為零</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FitRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>借戶利率檔適用利率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前利率 &lt;&gt; 借戶利率檔適用利率(預調利率)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo,FacmNo,BormNo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -995,9 +998,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般 2 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1088,6 +1091,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1123,6 +1143,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1298,11 +1335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1325,7 +1362,7 @@
         <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1350,7 +1387,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1431,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>60</v>
@@ -1507,10 +1544,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>95</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>36</v>
@@ -1520,7 +1557,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="21" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1580,7 +1617,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="32.4">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1591,14 +1628,14 @@
         <v>76</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="28" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="48.6">
@@ -1609,7 +1646,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>36</v>
@@ -1619,7 +1656,7 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64.8">
@@ -1630,7 +1667,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>36</v>
@@ -1640,7 +1677,7 @@
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="21" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8">
@@ -1648,10 +1685,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>36</v>
@@ -1661,7 +1698,7 @@
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="21" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1707,10 +1744,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>60</v>
@@ -1720,7 +1757,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1747,10 +1784,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>60</v>
@@ -1766,10 +1803,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>36</v>
@@ -1779,7 +1816,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1819,7 +1856,7 @@
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="29" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1849,7 +1886,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>37</v>
@@ -1861,7 +1898,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1893,7 +1930,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>37</v>
@@ -1914,7 +1951,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>37</v>
@@ -1932,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>34</v>
@@ -1953,10 +1990,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>37</v>
@@ -1968,7 +2005,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1979,7 +2016,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>39</v>
@@ -1991,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2002,7 +2039,7 @@
         <v>66</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>39</v>
@@ -2014,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="81">
@@ -2022,10 +2059,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>35</v>
@@ -2035,7 +2072,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="21" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8">
@@ -2046,7 +2083,7 @@
         <v>68</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>62</v>
@@ -2056,7 +2093,7 @@
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2064,10 +2101,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>36</v>
@@ -2079,7 +2116,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2087,10 +2124,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>60</v>
@@ -2100,7 +2137,7 @@
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="28" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2108,10 +2145,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>36</v>
@@ -2127,13 +2164,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D43" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="31">
         <v>300</v>
@@ -2146,13 +2183,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E44" s="19">
         <v>3</v>
@@ -2163,10 +2200,10 @@
         <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>35</v>
@@ -2181,10 +2218,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>35</v>
@@ -2279,10 +2316,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -2308,10 +2345,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2319,7 +2356,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2327,37 +2364,37 @@
         <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2387,7 +2424,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2419,13 +2456,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>112</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2437,13 +2474,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="16">
         <v>6</v>
@@ -2452,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="24.6" customHeight="1">
